--- a/Glaucoma.xlsx
+++ b/Glaucoma.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,6 +387,11 @@
           <t>ratio</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -395,13 +400,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" t="n">
         <v>124</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -411,7 +421,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" t="n">
         <v>141</v>
@@ -419,6 +429,11 @@
       <c r="D3" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -427,14 +442,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" t="n">
         <v>0.4</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nagative</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -443,14 +463,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
         <v>0.31</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nagative</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -459,7 +484,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" t="n">
         <v>151</v>
@@ -467,6 +492,11 @@
       <c r="D6" t="n">
         <v>0.59</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -475,13 +505,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C7" t="n">
         <v>182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -491,14 +526,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" t="n">
         <v>0.46</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -507,13 +547,18 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" t="n">
         <v>113</v>
       </c>
       <c r="D9" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -523,14 +568,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C10" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
         <v>0.63</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -539,7 +589,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11" t="n">
         <v>224</v>
@@ -547,6 +597,11 @@
       <c r="D11" t="n">
         <v>0.61</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -555,13 +610,18 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C12" t="n">
-        <v>709</v>
+        <v>131</v>
       </c>
       <c r="D12" t="n">
-        <v>2.41</v>
+        <v>0.45</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -571,14 +631,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C13" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" t="n">
         <v>0.5</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -587,14 +652,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C14" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" t="n">
         <v>0.57</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -603,7 +673,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C15" t="n">
         <v>148</v>
@@ -611,6 +681,11 @@
       <c r="D15" t="n">
         <v>0.51</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -619,7 +694,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C16" t="n">
         <v>197</v>
@@ -627,6 +702,11 @@
       <c r="D16" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -635,14 +715,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C17" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D17" t="n">
         <v>0.66</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -651,7 +736,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C18" t="n">
         <v>205</v>
@@ -659,6 +744,11 @@
       <c r="D18" t="n">
         <v>0.51</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -667,7 +757,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C19" t="n">
         <v>118</v>
@@ -675,6 +765,11 @@
       <c r="D19" t="n">
         <v>0.47</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -683,7 +778,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" t="n">
         <v>169</v>
@@ -691,6 +786,11 @@
       <c r="D20" t="n">
         <v>0.61</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -699,13 +799,18 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C21" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -715,13 +820,18 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C22" t="n">
         <v>139</v>
       </c>
       <c r="D22" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -731,14 +841,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C23" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -747,13 +862,18 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C24" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D24" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -763,13 +883,18 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C25" t="n">
-        <v>635</v>
+        <v>150</v>
       </c>
       <c r="D25" t="n">
-        <v>2.06</v>
+        <v>0.49</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -779,13 +904,18 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" t="n">
         <v>158</v>
       </c>
       <c r="D26" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -795,13 +925,18 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C27" t="n">
         <v>125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -811,13 +946,18 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C28" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D28" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -827,7 +967,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C29" t="n">
         <v>161</v>
@@ -835,6 +975,11 @@
       <c r="D29" t="n">
         <v>0.52</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -843,7 +988,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" t="n">
         <v>187</v>
@@ -851,6 +996,11 @@
       <c r="D30" t="n">
         <v>0.6</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -859,13 +1009,18 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" t="n">
         <v>139</v>
       </c>
       <c r="D31" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -875,7 +1030,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C32" t="n">
         <v>140</v>
@@ -883,6 +1038,11 @@
       <c r="D32" t="n">
         <v>0.45</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -891,13 +1051,18 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C33" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -907,14 +1072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C34" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" t="n">
         <v>0.5</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -923,13 +1093,18 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C35" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D35" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -939,13 +1114,18 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C36" t="n">
         <v>196</v>
       </c>
       <c r="D36" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -955,14 +1135,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C37" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37" t="n">
         <v>0.47</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -971,7 +1156,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C38" t="n">
         <v>141</v>
@@ -979,6 +1164,11 @@
       <c r="D38" t="n">
         <v>0.48</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -987,14 +1177,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C39" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" t="n">
         <v>0.49</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1003,14 +1198,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C40" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" t="n">
         <v>0.57</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1019,14 +1219,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C41" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" t="n">
         <v>0.47</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1035,13 +1240,18 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C42" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Nagative</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1051,13 +1261,18 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C43" t="n">
         <v>128</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1067,13 +1282,18 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1105</v>
+        <v>274</v>
       </c>
       <c r="C44" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13</v>
+        <v>0.51</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1083,7 +1303,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C45" t="n">
         <v>121</v>
@@ -1091,6 +1311,11 @@
       <c r="D45" t="n">
         <v>0.37</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Nagative</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1099,7 +1324,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C46" t="n">
         <v>176</v>
@@ -1107,6 +1332,11 @@
       <c r="D46" t="n">
         <v>0.6</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1115,7 +1345,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C47" t="n">
         <v>109</v>
@@ -1123,6 +1353,11 @@
       <c r="D47" t="n">
         <v>0.35</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Nagative</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1131,14 +1366,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C48" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D48" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1147,14 +1387,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C49" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D49" t="n">
         <v>0.4</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Nagative</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1166,10 +1411,15 @@
         <v>267</v>
       </c>
       <c r="C50" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D50" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1179,13 +1429,18 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C51" t="n">
         <v>190</v>
       </c>
       <c r="D51" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1195,14 +1450,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C52" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D52" t="n">
         <v>0.59</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1211,14 +1471,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C53" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D53" t="n">
         <v>0.47</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1227,14 +1492,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C54" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="n">
         <v>0.49</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1243,7 +1513,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C55" t="n">
         <v>173</v>
@@ -1251,6 +1521,11 @@
       <c r="D55" t="n">
         <v>0.63</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1259,7 +1534,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C56" t="n">
         <v>139</v>
@@ -1267,6 +1542,11 @@
       <c r="D56" t="n">
         <v>0.5</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1275,7 +1555,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C57" t="n">
         <v>162</v>
@@ -1283,6 +1563,11 @@
       <c r="D57" t="n">
         <v>0.58</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1299,6 +1584,11 @@
       <c r="D58" t="n">
         <v>0.43</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1307,14 +1597,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C59" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D59" t="n">
         <v>0.49</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1323,13 +1618,18 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C60" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D60" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1339,13 +1639,18 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C61" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D61" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1355,14 +1660,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C62" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" t="n">
         <v>0.55</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1371,14 +1681,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C63" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" t="n">
         <v>0.59</v>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1387,13 +1702,18 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C64" t="n">
         <v>158</v>
       </c>
       <c r="D64" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1403,7 +1723,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C65" t="n">
         <v>141</v>
@@ -1411,6 +1731,11 @@
       <c r="D65" t="n">
         <v>0.58</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1419,14 +1744,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C66" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D66" t="n">
         <v>0.58</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1438,10 +1768,15 @@
         <v>288</v>
       </c>
       <c r="C67" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D67" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Nagative</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1451,7 +1786,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C68" t="n">
         <v>195</v>
@@ -1459,6 +1794,11 @@
       <c r="D68" t="n">
         <v>0.58</v>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1467,13 +1807,18 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C69" t="n">
         <v>189</v>
       </c>
       <c r="D69" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -1483,7 +1828,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C70" t="n">
         <v>148</v>
@@ -1491,6 +1836,11 @@
       <c r="D70" t="n">
         <v>0.45</v>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1499,13 +1849,18 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D71" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1515,13 +1870,18 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C72" t="n">
         <v>120</v>
       </c>
       <c r="D72" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -1531,7 +1891,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73" t="n">
         <v>124</v>
@@ -1539,6 +1899,11 @@
       <c r="D73" t="n">
         <v>0.46</v>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1547,14 +1912,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C74" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" t="n">
         <v>0.5</v>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1563,13 +1933,18 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C75" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -1579,14 +1954,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C76" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D76" t="n">
         <v>0.65</v>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1595,13 +1975,18 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C77" t="n">
         <v>171</v>
       </c>
       <c r="D77" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1611,7 +1996,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C78" t="n">
         <v>195</v>
@@ -1619,6 +2004,11 @@
       <c r="D78" t="n">
         <v>0.65</v>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1627,14 +2017,19 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C79" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79" t="n">
         <v>0.49</v>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1646,10 +2041,15 @@
         <v>291</v>
       </c>
       <c r="C80" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D80" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Nagative</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -1662,10 +2062,15 @@
         <v>303</v>
       </c>
       <c r="C81" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D81" t="n">
         <v>0.52</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
   </sheetData>
